--- a/spliced/walkingToRunning/2023-03-27_19-45-19/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-45-19/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.567986605553708</v>
+        <v>-2.211326163574302</v>
       </c>
       <c r="B2" t="n">
-        <v>-10.46308358687929</v>
+        <v>2.150324112876168</v>
       </c>
       <c r="C2" t="n">
-        <v>3.562777431317597</v>
+        <v>1.247732900374419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17.61377343119165</v>
+        <v>-4.031598659201058</v>
       </c>
       <c r="B3" t="n">
-        <v>-10.51156460106694</v>
+        <v>4.015500838530144</v>
       </c>
       <c r="C3" t="n">
-        <v>20.08533663190278</v>
+        <v>-0.2885845313525067</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.035594037125227</v>
+        <v>-6.420986591104682</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.513396849179556</v>
+        <v>1.20337057380033</v>
       </c>
       <c r="C4" t="n">
-        <v>21.60889010722416</v>
+        <v>-1.732376253138717</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-4.494862745594324</v>
+        <v>4.567986605553708</v>
       </c>
       <c r="B5" t="n">
-        <v>-12.72800636291483</v>
+        <v>-10.46308358687929</v>
       </c>
       <c r="C5" t="n">
-        <v>16.61688380534384</v>
+        <v>3.562777431317597</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.43890388851041</v>
+        <v>17.61377343119165</v>
       </c>
       <c r="B6" t="n">
-        <v>4.036262465588887</v>
+        <v>-10.51156460106694</v>
       </c>
       <c r="C6" t="n">
-        <v>-9.549222749038602</v>
+        <v>20.08533663190278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-7.879071504710167</v>
+        <v>2.035594037125227</v>
       </c>
       <c r="B7" t="n">
-        <v>3.041327564409888</v>
+        <v>-6.513396849179556</v>
       </c>
       <c r="C7" t="n">
-        <v>2.442169080233292</v>
+        <v>21.60889010722416</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.956681896188496</v>
+        <v>-4.494862745594324</v>
       </c>
       <c r="B8" t="n">
-        <v>-13.66369730134245</v>
+        <v>-12.72800636291483</v>
       </c>
       <c r="C8" t="n">
-        <v>-14.55029999077653</v>
+        <v>16.61688380534384</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>51.13817510658146</v>
+        <v>-22.43890388851041</v>
       </c>
       <c r="B9" t="n">
-        <v>-43.46387473165</v>
+        <v>4.036262465588887</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.35560065541191</v>
+        <v>-9.549222749038602</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.339946466118201</v>
+        <v>-7.879071504710167</v>
       </c>
       <c r="B10" t="n">
-        <v>6.873994438341972</v>
+        <v>3.041327564409888</v>
       </c>
       <c r="C10" t="n">
-        <v>6.364067559801637</v>
+        <v>2.442169080233292</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-25.97014113911067</v>
+        <v>-5.956681896188496</v>
       </c>
       <c r="B11" t="n">
-        <v>-30.95927179858692</v>
+        <v>-13.66369730134245</v>
       </c>
       <c r="C11" t="n">
-        <v>17.79535382020416</v>
+        <v>-14.55029999077653</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>73.63464008096938</v>
+        <v>51.13817510658146</v>
       </c>
       <c r="B12" t="n">
-        <v>37.6902129104022</v>
+        <v>-43.46387473165</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.3809408795236</v>
+        <v>-12.35560065541191</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.154703600446169</v>
+        <v>-2.339946466118201</v>
       </c>
       <c r="B13" t="n">
-        <v>4.50867962437615</v>
+        <v>6.873994438341972</v>
       </c>
       <c r="C13" t="n">
-        <v>-15.51630046780552</v>
+        <v>6.364067559801637</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-13.39775241153873</v>
+        <v>-25.97014113911067</v>
       </c>
       <c r="B14" t="n">
-        <v>-10.9087138255882</v>
+        <v>-30.95927179858692</v>
       </c>
       <c r="C14" t="n">
-        <v>1.653049628827921</v>
+        <v>17.79535382020416</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.522862165333933</v>
+        <v>73.63464008096938</v>
       </c>
       <c r="B15" t="n">
-        <v>12.32596291376905</v>
+        <v>37.6902129104022</v>
       </c>
       <c r="C15" t="n">
-        <v>12.86789060837735</v>
+        <v>-10.3809408795236</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>19.89011966449595</v>
+        <v>2.154703600446169</v>
       </c>
       <c r="B16" t="n">
-        <v>5.328304288107542</v>
+        <v>4.50867962437615</v>
       </c>
       <c r="C16" t="n">
-        <v>11.88753799353231</v>
+        <v>-15.51630046780552</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-12.95295592792888</v>
+        <v>-13.39775241153873</v>
       </c>
       <c r="B17" t="n">
-        <v>-19.4889181339542</v>
+        <v>-10.9087138255882</v>
       </c>
       <c r="C17" t="n">
-        <v>-11.20622292843621</v>
+        <v>1.653049628827921</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-4.303794069663045</v>
+        <v>3.522862165333933</v>
       </c>
       <c r="B18" t="n">
-        <v>6.515993139597406</v>
+        <v>12.32596291376905</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.974593159872695</v>
+        <v>12.86789060837735</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-7.337878317806332</v>
+        <v>19.89011966449595</v>
       </c>
       <c r="B19" t="n">
-        <v>1.127323491613247</v>
+        <v>5.328304288107542</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.9910465711987735</v>
+        <v>11.88753799353231</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-14.0460179291624</v>
+        <v>-12.95295592792888</v>
       </c>
       <c r="B20" t="n">
-        <v>3.849663886278055</v>
+        <v>-19.4889181339542</v>
       </c>
       <c r="C20" t="n">
-        <v>26.29019586200828</v>
+        <v>-11.20622292843621</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-4.303794069663045</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6.515993139597406</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-7.974593159872695</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-7.337878317806332</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.127323491613247</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.9910465711987735</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-14.0460179291624</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.849663886278055</v>
+      </c>
+      <c r="C23" t="n">
+        <v>26.29019586200828</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>6.493024794083423</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>21.38743103283101</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>19.31860338775778</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37.32190535987588</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-33.90012039951871</v>
+      </c>
+      <c r="C25" t="n">
+        <v>27.08640504549361</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.3525614285610033</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-16.87390499541134</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-5.992740513892805</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-27.24396839887731</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.699085454034913</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-26.36042895396987</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-11.78973249882937</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-39.63500136902936</v>
+      </c>
+      <c r="C28" t="n">
+        <v>31.93103018819374</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-3.788272580621008</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-24.42989606164616</v>
+      </c>
+      <c r="C29" t="n">
+        <v>38.63967183448689</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10.84635844310596</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.736711256996685</v>
+      </c>
+      <c r="C30" t="n">
+        <v>13.0294989154327</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-15.62121211217174</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-12.64114606846652</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-11.19534088646288</v>
       </c>
     </row>
   </sheetData>
